--- a/doc/data/data_for_tests/test_fitparameters.xlsx
+++ b/doc/data/data_for_tests/test_fitparameters.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -376,7 +376,7 @@
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>Qmax</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
@@ -391,7 +391,7 @@
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>sigma_Q</t>
+          <t>sigma_Qmax</t>
         </is>
       </c>
     </row>
@@ -449,7 +449,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B4" t="n">
         <v>1</v>
@@ -475,7 +475,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B5" t="n">
         <v>2</v>
@@ -501,7 +501,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B6" t="n">
         <v>3</v>
@@ -530,7 +530,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -556,7 +556,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -582,7 +582,7 @@
         <v>11</v>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -605,313 +605,235 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>0.9472680583332456</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>2.223919253586555</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>153.778365286757</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>0.006025992006613574</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>0.03184829476822162</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>0.4129295786546802</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>0.5298482569296071</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>2.244143493579989</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>151.1248275426328</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>0.00381352394147865</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>0.03786338167080688</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>0.3493684391556838</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B12" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>0.2703644295923139</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>1.884652809530414</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>152.6064660276954</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>0.01125810008831655</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>0.1174232247993279</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>0.5183729229381381</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B13" t="n">
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9472680583332456</v>
+        <v>2.675292705917786e-06</v>
       </c>
       <c r="D13" t="n">
-        <v>2.223919253586555</v>
+        <v>0.1151415365226283</v>
       </c>
       <c r="E13" t="n">
-        <v>153.778365286757</v>
+        <v>196.6457882153193</v>
       </c>
       <c r="F13" t="n">
-        <v>0.006025992006613574</v>
+        <v>4.112594743273689e-06</v>
       </c>
       <c r="G13" t="n">
-        <v>0.03184829476822162</v>
+        <v>0.04134049334587279</v>
       </c>
       <c r="H13" t="n">
-        <v>0.4129295786546802</v>
+        <v>19.0476720171173</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>0.5298482569296071</v>
+        <v>0.09230202377056106</v>
       </c>
       <c r="D14" t="n">
-        <v>2.244143493579989</v>
+        <v>4.669970943492649</v>
       </c>
       <c r="E14" t="n">
-        <v>151.1248275426328</v>
+        <v>127.7166990794881</v>
       </c>
       <c r="F14" t="n">
-        <v>0.00381352394147865</v>
+        <v>0.002932246713179297</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03786338167080688</v>
+        <v>0.564664078128625</v>
       </c>
       <c r="H14" t="n">
-        <v>0.3493684391556838</v>
+        <v>1.17145876939056</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2703644295923139</v>
+        <v>0.09525888563377229</v>
       </c>
       <c r="D15" t="n">
-        <v>1.884652809530414</v>
+        <v>4.526729042342593</v>
       </c>
       <c r="E15" t="n">
-        <v>152.6064660276954</v>
+        <v>127.9063562663866</v>
       </c>
       <c r="F15" t="n">
-        <v>0.01125810008831655</v>
+        <v>0.002588885361910252</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1174232247993279</v>
+        <v>0.4959591563144567</v>
       </c>
       <c r="H15" t="n">
-        <v>0.5183729229381381</v>
+        <v>1.237089018732071</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B16" t="n">
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>2.675292705917786e-06</v>
+        <v>0.03446724747588435</v>
       </c>
       <c r="D16" t="n">
-        <v>0.1151415365226283</v>
+        <v>2.421714025257418</v>
       </c>
       <c r="E16" t="n">
-        <v>196.6457882153193</v>
+        <v>135.2320396279298</v>
       </c>
       <c r="F16" t="n">
-        <v>4.112594743273689e-06</v>
+        <v>0.001512072123235177</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04134049334587279</v>
+        <v>0.2827222469586464</v>
       </c>
       <c r="H16" t="n">
-        <v>19.0476720171173</v>
+        <v>1.332360723012374</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B17" t="n">
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0.09230202377056106</v>
+        <v>0.109880739349206</v>
       </c>
       <c r="D17" t="n">
-        <v>4.669970943492649</v>
+        <v>2.363937278683695</v>
       </c>
       <c r="E17" t="n">
-        <v>127.7166990794881</v>
+        <v>306.757869366128</v>
       </c>
       <c r="F17" t="n">
-        <v>0.002932246713179297</v>
+        <v>0.03338938955212464</v>
       </c>
       <c r="G17" t="n">
-        <v>0.564664078128625</v>
+        <v>1.62535836248641</v>
       </c>
       <c r="H17" t="n">
-        <v>1.17145876939056</v>
+        <v>56.54173750214101</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B18" t="n">
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>0.09525888563377229</v>
+        <v>0.09451541974802845</v>
       </c>
       <c r="D18" t="n">
-        <v>4.526729042342593</v>
+        <v>1.402870223511888</v>
       </c>
       <c r="E18" t="n">
-        <v>127.9063562663866</v>
+        <v>313.6412583970946</v>
       </c>
       <c r="F18" t="n">
-        <v>0.002588885361910252</v>
+        <v>0.009626267403902376</v>
       </c>
       <c r="G18" t="n">
-        <v>0.4959591563144567</v>
+        <v>0.2332876781637029</v>
       </c>
       <c r="H18" t="n">
-        <v>1.237089018732071</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>27</v>
-      </c>
-      <c r="B19" t="n">
-        <v>1</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.03446724747588435</v>
-      </c>
-      <c r="D19" t="n">
-        <v>2.421714025257418</v>
-      </c>
-      <c r="E19" t="n">
-        <v>135.2320396279298</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0.001512072123235177</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0.2827222469586464</v>
-      </c>
-      <c r="H19" t="n">
-        <v>1.332360723012374</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>31</v>
-      </c>
-      <c r="B20" t="n">
-        <v>1</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.109880739349206</v>
-      </c>
-      <c r="D20" t="n">
-        <v>2.363937278683695</v>
-      </c>
-      <c r="E20" t="n">
-        <v>306.757869366128</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0.03338938955212464</v>
-      </c>
-      <c r="G20" t="n">
-        <v>1.62535836248641</v>
-      </c>
-      <c r="H20" t="n">
-        <v>56.54173750214101</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>31</v>
-      </c>
-      <c r="B21" t="n">
-        <v>2</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.09451541974802845</v>
-      </c>
-      <c r="D21" t="n">
-        <v>1.402870223511888</v>
-      </c>
-      <c r="E21" t="n">
-        <v>313.6412583970946</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0.009626267403902376</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0.2332876781637029</v>
-      </c>
-      <c r="H21" t="n">
         <v>14.56556189306062</v>
       </c>
     </row>
